--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>NUMBER</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>0 hours, -16 minutes</t>
+  </si>
+  <si>
+    <t>9:10 PM</t>
+  </si>
+  <si>
+    <t>(EI-EMH)</t>
+  </si>
+  <si>
+    <t>8:49 PM</t>
   </si>
 </sst>
 </file>
@@ -215,7 +224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -476,6 +485,43 @@
       </c>
       <c r="M7" s="0"/>
     </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="K8" s="0"/>
+      <c r="L8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="M8" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
   <si>
     <t>NUMBER</t>
   </si>
@@ -180,6 +180,51 @@
   </si>
   <si>
     <t>8:49 PM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 09</t>
+  </si>
+  <si>
+    <t>8:00 AM</t>
+  </si>
+  <si>
+    <t>FR6111</t>
+  </si>
+  <si>
+    <t>Gdansk</t>
+  </si>
+  <si>
+    <t>(GDN)</t>
+  </si>
+  <si>
+    <t>(SP-RSW)</t>
+  </si>
+  <si>
+    <t>7:53 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -7 minutes</t>
+  </si>
+  <si>
+    <t>11:30 AM</t>
+  </si>
+  <si>
+    <t>FR5217</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>(DUB)</t>
+  </si>
+  <si>
+    <t>(EI-DWV)</t>
+  </si>
+  <si>
+    <t>11:20 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -10 minutes</t>
   </si>
 </sst>
 </file>
@@ -224,7 +269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -522,6 +567,80 @@
       </c>
       <c r="M8" s="0"/>
     </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="K9" s="0"/>
+      <c r="L9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="M9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="L10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="M10" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
   <si>
     <t>NUMBER</t>
   </si>
@@ -225,6 +225,42 @@
   </si>
   <si>
     <t>0 hours, -10 minutes</t>
+  </si>
+  <si>
+    <t>6:22 PM</t>
+  </si>
+  <si>
+    <t>St. Moritz</t>
+  </si>
+  <si>
+    <t>(SMV)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JetStory </t>
+  </si>
+  <si>
+    <t>HDJT</t>
+  </si>
+  <si>
+    <t>(SP-MCH)</t>
+  </si>
+  <si>
+    <t>6:11 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -11 minutes</t>
+  </si>
+  <si>
+    <t>6:25 PM</t>
+  </si>
+  <si>
+    <t>(EI-EBL)</t>
+  </si>
+  <si>
+    <t>6:00 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -25 minutes</t>
   </si>
 </sst>
 </file>
@@ -269,7 +305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -641,6 +677,80 @@
       </c>
       <c r="M10" s="0"/>
     </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="K11" s="0"/>
+      <c r="L11" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="M11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n" s="0">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="M12" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>NUMBER</t>
   </si>
@@ -261,6 +261,30 @@
   </si>
   <si>
     <t>0 hours, -25 minutes</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 10</t>
+  </si>
+  <si>
+    <t>A21N</t>
+  </si>
+  <si>
+    <t>(G-WUKM)</t>
+  </si>
+  <si>
+    <t>9:12 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -23 minutes</t>
+  </si>
+  <si>
+    <t>(HA-LTB)</t>
+  </si>
+  <si>
+    <t>10:27 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -3 minutes</t>
   </si>
 </sst>
 </file>
@@ -305,7 +329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -751,6 +775,80 @@
       </c>
       <c r="M12" s="0"/>
     </row>
+    <row r="13">
+      <c r="A13" t="n" s="0">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="K13" s="0"/>
+      <c r="L13" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="M13" s="0"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n" s="0">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="K14" s="0"/>
+      <c r="L14" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="M14" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
   <si>
     <t>NUMBER</t>
   </si>
@@ -285,6 +285,63 @@
   </si>
   <si>
     <t>0 hours, -3 minutes</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 11</t>
+  </si>
+  <si>
+    <t>(HA-LYK)</t>
+  </si>
+  <si>
+    <t>11:41 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -24 minutes</t>
+  </si>
+  <si>
+    <t>12:50 PM</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>(FRA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NetJets Europe </t>
+  </si>
+  <si>
+    <t>CL35</t>
+  </si>
+  <si>
+    <t>(CS-CHH)</t>
+  </si>
+  <si>
+    <t>12:47 PM</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 12</t>
+  </si>
+  <si>
+    <t>(G-WUKT)</t>
+  </si>
+  <si>
+    <t>9:09 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -26 minutes</t>
+  </si>
+  <si>
+    <t>4:30 PM</t>
+  </si>
+  <si>
+    <t>(EI-EBZ)</t>
+  </si>
+  <si>
+    <t>4:25 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -5 minutes</t>
   </si>
 </sst>
 </file>
@@ -329,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -849,6 +906,154 @@
       </c>
       <c r="M14" s="0"/>
     </row>
+    <row r="15">
+      <c r="A15" t="n" s="0">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="K15" s="0"/>
+      <c r="L15" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="M15" s="0"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n" s="0">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="K16" s="0"/>
+      <c r="L16" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="M16" s="0"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n" s="0">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K17" s="0"/>
+      <c r="L17" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="M17" s="0"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n" s="0">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="K18" s="0"/>
+      <c r="L18" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="M18" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
   <si>
     <t>NUMBER</t>
   </si>
@@ -342,6 +342,27 @@
   </si>
   <si>
     <t>0 hours, -5 minutes</t>
+  </si>
+  <si>
+    <t>Friday, Jan 13</t>
+  </si>
+  <si>
+    <t>9:02 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -33 minutes</t>
+  </si>
+  <si>
+    <t>1:05 PM</t>
+  </si>
+  <si>
+    <t>(EI-DPL)</t>
+  </si>
+  <si>
+    <t>12:36 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -29 minutes</t>
   </si>
 </sst>
 </file>
@@ -386,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1054,6 +1075,80 @@
       </c>
       <c r="M18" s="0"/>
     </row>
+    <row r="19">
+      <c r="A19" t="n" s="0">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="K19" s="0"/>
+      <c r="L19" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="M19" s="0"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n" s="0">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="K20" s="0"/>
+      <c r="L20" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="M20" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="123">
   <si>
     <t>NUMBER</t>
   </si>
@@ -363,6 +363,24 @@
   </si>
   <si>
     <t>0 hours, -29 minutes</t>
+  </si>
+  <si>
+    <t>6:15 PM</t>
+  </si>
+  <si>
+    <t>(EI-EXE)</t>
+  </si>
+  <si>
+    <t>5:57 PM</t>
+  </si>
+  <si>
+    <t>8:55 PM</t>
+  </si>
+  <si>
+    <t>8:57 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 2 minutes</t>
   </si>
 </sst>
 </file>
@@ -407,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1149,6 +1167,80 @@
       </c>
       <c r="M20" s="0"/>
     </row>
+    <row r="21">
+      <c r="A21" t="n" s="0">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="J21" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="K21" s="0"/>
+      <c r="L21" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="M21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n" s="0">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J22" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K22" s="0"/>
+      <c r="L22" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="M22" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="136">
   <si>
     <t>NUMBER</t>
   </si>
@@ -381,6 +381,45 @@
   </si>
   <si>
     <t>0 hours, 2 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 14</t>
+  </si>
+  <si>
+    <t>9:16 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -19 minutes</t>
+  </si>
+  <si>
+    <t>(HA-LXL)</t>
+  </si>
+  <si>
+    <t>9:52 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -38 minutes</t>
+  </si>
+  <si>
+    <t>12:33 PM</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>(WAW)</t>
+  </si>
+  <si>
+    <t>F2TH</t>
+  </si>
+  <si>
+    <t>(CS-DLK)</t>
+  </si>
+  <si>
+    <t>12:37 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 4 minutes</t>
   </si>
 </sst>
 </file>
@@ -425,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1241,6 +1280,117 @@
       </c>
       <c r="M22" s="0"/>
     </row>
+    <row r="23">
+      <c r="A23" t="n" s="0">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="K23" s="0"/>
+      <c r="L23" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M23" s="0"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I24" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="K24" s="0"/>
+      <c r="L24" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="M24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n" s="0">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="J25" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="K25" s="0"/>
+      <c r="L25" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="M25" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="141">
   <si>
     <t>NUMBER</t>
   </si>
@@ -420,6 +420,21 @@
   </si>
   <si>
     <t>0 hours, 4 minutes</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 15</t>
+  </si>
+  <si>
+    <t>(G-WUKI)</t>
+  </si>
+  <si>
+    <t>9:14 AM</t>
+  </si>
+  <si>
+    <t>(HA-LTC)</t>
+  </si>
+  <si>
+    <t>11:54 AM</t>
   </si>
 </sst>
 </file>
@@ -464,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1391,6 +1406,80 @@
       </c>
       <c r="M25" s="0"/>
     </row>
+    <row r="26">
+      <c r="A26" t="n" s="0">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="J26" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="K26" s="0"/>
+      <c r="L26" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="M26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n" s="0">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="J27" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="K27" s="0"/>
+      <c r="L27" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="M27" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="141">
   <si>
     <t>NUMBER</t>
   </si>
@@ -479,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1480,6 +1480,43 @@
       </c>
       <c r="M27" s="0"/>
     </row>
+    <row r="28">
+      <c r="A28" t="n" s="0">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="K28" s="0"/>
+      <c r="L28" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="M28" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="144">
   <si>
     <t>NUMBER</t>
   </si>
@@ -435,6 +435,15 @@
   </si>
   <si>
     <t>11:54 AM</t>
+  </si>
+  <si>
+    <t>Monday, Jan 16</t>
+  </si>
+  <si>
+    <t>7:46 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -14 minutes</t>
   </si>
 </sst>
 </file>
@@ -479,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1517,6 +1526,43 @@
       </c>
       <c r="M28" s="0"/>
     </row>
+    <row r="29">
+      <c r="A29" t="n" s="0">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J29" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="K29" s="0"/>
+      <c r="L29" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="M29" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="150">
   <si>
     <t>NUMBER</t>
   </si>
@@ -444,6 +444,24 @@
   </si>
   <si>
     <t>0 hours, -14 minutes</t>
+  </si>
+  <si>
+    <t>(EI-DCP)</t>
+  </si>
+  <si>
+    <t>Tuesday, Jan 17</t>
+  </si>
+  <si>
+    <t>(G-WUKU)</t>
+  </si>
+  <si>
+    <t>10:14 AM</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 18</t>
+  </si>
+  <si>
+    <t>(HA-LXC)</t>
   </si>
 </sst>
 </file>
@@ -488,7 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1563,6 +1581,154 @@
       </c>
       <c r="M29" s="0"/>
     </row>
+    <row r="30">
+      <c r="A30" t="n" s="0">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="J30" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="K30" s="0"/>
+      <c r="L30" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="M30" s="0"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n" s="0">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="J31" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="K31" s="0"/>
+      <c r="L31" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="M31" s="0"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n" s="0">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="J32" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="K32" s="0"/>
+      <c r="L32" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M32" s="0"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n" s="0">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="J33" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="K33" s="0"/>
+      <c r="L33" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="M33" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="165">
   <si>
     <t>NUMBER</t>
   </si>
@@ -462,6 +462,51 @@
   </si>
   <si>
     <t>(HA-LXC)</t>
+  </si>
+  <si>
+    <t>Friday, Jan 20</t>
+  </si>
+  <si>
+    <t>9:18 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -17 minutes</t>
+  </si>
+  <si>
+    <t>12:53 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -12 minutes</t>
+  </si>
+  <si>
+    <t>(EI-DHP)</t>
+  </si>
+  <si>
+    <t>0 hours, -4 minutes</t>
+  </si>
+  <si>
+    <t>(SP-RSB)</t>
+  </si>
+  <si>
+    <t>9:09 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 14 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 21</t>
+  </si>
+  <si>
+    <t>10:35 AM</t>
+  </si>
+  <si>
+    <t>1 hours, 0 minutes</t>
+  </si>
+  <si>
+    <t>(HA-LWR)</t>
+  </si>
+  <si>
+    <t>10:26 AM</t>
   </si>
 </sst>
 </file>
@@ -506,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1729,6 +1774,228 @@
       </c>
       <c r="M33" s="0"/>
     </row>
+    <row r="34">
+      <c r="A34" t="n" s="0">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I34" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="K34" s="0"/>
+      <c r="L34" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="M34" s="0"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="J35" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="K35" s="0"/>
+      <c r="L35" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="M35" s="0"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n" s="0">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="J36" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="K36" s="0"/>
+      <c r="L36" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="M36" s="0"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n" s="0">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="J37" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="K37" s="0"/>
+      <c r="L37" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="M37" s="0"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I38" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="K38" s="0"/>
+      <c r="L38" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="M38" s="0"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n" s="0">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H39" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="J39" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="K39" s="0"/>
+      <c r="L39" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="M39" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
   <si>
     <t>NUMBER</t>
   </si>
@@ -464,49 +464,94 @@
     <t>(HA-LXC)</t>
   </si>
   <si>
-    <t>Friday, Jan 20</t>
-  </si>
-  <si>
-    <t>9:18 AM</t>
-  </si>
-  <si>
-    <t>0 hours, -17 minutes</t>
-  </si>
-  <si>
-    <t>12:53 PM</t>
-  </si>
-  <si>
-    <t>0 hours, -12 minutes</t>
-  </si>
-  <si>
-    <t>(EI-DHP)</t>
+    <t>Sunday, Jan 22</t>
+  </si>
+  <si>
+    <t>(EI-DYW)</t>
+  </si>
+  <si>
+    <t>9:06 PM</t>
   </si>
   <si>
     <t>0 hours, -4 minutes</t>
   </si>
   <si>
-    <t>(SP-RSB)</t>
-  </si>
-  <si>
-    <t>9:09 PM</t>
-  </si>
-  <si>
-    <t>0 hours, 14 minutes</t>
-  </si>
-  <si>
-    <t>Saturday, Jan 21</t>
-  </si>
-  <si>
-    <t>10:35 AM</t>
-  </si>
-  <si>
-    <t>1 hours, 0 minutes</t>
-  </si>
-  <si>
-    <t>(HA-LWR)</t>
-  </si>
-  <si>
-    <t>10:26 AM</t>
+    <t>Monday, Jan 23</t>
+  </si>
+  <si>
+    <t>8:01 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 1 minutes</t>
+  </si>
+  <si>
+    <t>12:00 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 30 minutes</t>
+  </si>
+  <si>
+    <t>(EI-EVF)</t>
+  </si>
+  <si>
+    <t>6:24 PM</t>
+  </si>
+  <si>
+    <t>0 hours, -1 minutes</t>
+  </si>
+  <si>
+    <t>Wednesday, Jan 25</t>
+  </si>
+  <si>
+    <t>(HA-LXJ)</t>
+  </si>
+  <si>
+    <t>12:01 PM</t>
+  </si>
+  <si>
+    <t>Thursday, Jan 26</t>
+  </si>
+  <si>
+    <t>(G-WUKG)</t>
+  </si>
+  <si>
+    <t>9:24 AM</t>
+  </si>
+  <si>
+    <t>Friday, Jan 27</t>
+  </si>
+  <si>
+    <t>(G-WUKS)</t>
+  </si>
+  <si>
+    <t>9:22 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -13 minutes</t>
+  </si>
+  <si>
+    <t>(EI-EBI)</t>
+  </si>
+  <si>
+    <t>1:09 PM</t>
+  </si>
+  <si>
+    <t>(EI-DHS)</t>
+  </si>
+  <si>
+    <t>0 hours, 9 minutes</t>
+  </si>
+  <si>
+    <t>9:32 PM</t>
+  </si>
+  <si>
+    <t>0 hours, 37 minutes</t>
+  </si>
+  <si>
+    <t>Saturday, Jan 28</t>
+  </si>
+  <si>
+    <t>9:28 AM</t>
   </si>
 </sst>
 </file>
@@ -551,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1782,10 +1827,10 @@
         <v>150</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s" s="0">
         <v>14</v>
@@ -1794,20 +1839,20 @@
         <v>15</v>
       </c>
       <c r="G34" t="s" s="0">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s" s="0">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I34" t="s" s="0">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="J34" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K34" s="0"/>
       <c r="L34" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M34" s="0"/>
     </row>
@@ -1816,19 +1861,19 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s" s="0">
         <v>16</v>
@@ -1837,14 +1882,14 @@
         <v>17</v>
       </c>
       <c r="I35" t="s" s="0">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="J35" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K35" s="0"/>
       <c r="L35" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M35" s="0"/>
     </row>
@@ -1853,10 +1898,10 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="D36" t="s" s="0">
         <v>65</v>
@@ -1874,14 +1919,14 @@
         <v>17</v>
       </c>
       <c r="I36" t="s" s="0">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J36" t="s" s="0">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="K36" s="0"/>
       <c r="L36" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M36" s="0"/>
     </row>
@@ -1890,19 +1935,19 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s" s="0">
         <v>16</v>
@@ -1911,14 +1956,14 @@
         <v>17</v>
       </c>
       <c r="I37" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J37" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K37" s="0"/>
       <c r="L37" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M37" s="0"/>
     </row>
@@ -1927,35 +1972,35 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I38" t="s" s="0">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="J38" t="s" s="0">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K38" s="0"/>
       <c r="L38" t="s" s="0">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="M38" s="0"/>
     </row>
@@ -1964,37 +2009,222 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G39" t="s" s="0">
         <v>22</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I39" t="s" s="0">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="J39" t="s" s="0">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K39" s="0"/>
       <c r="L39" t="s" s="0">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="M39" s="0"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n" s="0">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I40" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="J40" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="K40" s="0"/>
+      <c r="L40" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="M40" s="0"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n" s="0">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G41" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H41" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="J41" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="K41" s="0"/>
+      <c r="L41" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="M41" s="0"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n" s="0">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G42" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="J42" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="K42" s="0"/>
+      <c r="L42" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="M42" s="0"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n" s="0">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H43" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J43" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="K43" s="0"/>
+      <c r="L43" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="M43" s="0"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n" s="0">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G44" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H44" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="J44" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="K44" s="0"/>
+      <c r="L44" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="M44" s="0"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/DataBase/LUZ_Arrivals.xlsx
+++ b/DataBase/LUZ_Arrivals.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="192">
   <si>
     <t>NUMBER</t>
   </si>
@@ -552,6 +552,42 @@
   </si>
   <si>
     <t>9:28 AM</t>
+  </si>
+  <si>
+    <t>Sunday, Jan 29</t>
+  </si>
+  <si>
+    <t>11:50 AM</t>
+  </si>
+  <si>
+    <t>(HA-LZO)</t>
+  </si>
+  <si>
+    <t>11:47 AM</t>
+  </si>
+  <si>
+    <t>(EI-DWW)</t>
+  </si>
+  <si>
+    <t>Monday, Jan 30</t>
+  </si>
+  <si>
+    <t>8:11 AM</t>
+  </si>
+  <si>
+    <t>0 hours, 11 minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryanair (Boeing Livery) </t>
+  </si>
+  <si>
+    <t>(EI-DCL)</t>
+  </si>
+  <si>
+    <t>11:18 AM</t>
+  </si>
+  <si>
+    <t>0 hours, -12 minutes</t>
   </si>
 </sst>
 </file>
@@ -596,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2226,6 +2262,228 @@
       </c>
       <c r="M44" s="0"/>
     </row>
+    <row r="45">
+      <c r="A45" t="n" s="0">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H45" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I45" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="J45" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="K45" s="0"/>
+      <c r="L45" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="M45" s="0"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n" s="0">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="G46" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="I46" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="J46" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="K46" s="0"/>
+      <c r="L46" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="M46" s="0"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n" s="0">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G47" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="J47" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="K47" s="0"/>
+      <c r="L47" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="M47" s="0"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n" s="0">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="G48" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="J48" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="K48" s="0"/>
+      <c r="L48" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="M48" s="0"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n" s="0">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="G49" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I49" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="J49" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="K49" s="0"/>
+      <c r="L49" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="M49" s="0"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n" s="0">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="G50" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="H50" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="J50" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="K50" s="0"/>
+      <c r="L50" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="M50" s="0"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
